--- a/REVER_DailyTracker_20200522.xlsx
+++ b/REVER_DailyTracker_20200522.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\DailyTracker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mamatha\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7AF137B-88D5-451D-81F0-15BD0D0B7460}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C18DB4-D797-4D48-A010-F209EEC857FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="54">
   <si>
     <t>Task</t>
   </si>
@@ -191,6 +191,12 @@
   </si>
   <si>
     <t>Discuss with Elaya, Rahman and Mamatha, Mohan Shimada San.</t>
+  </si>
+  <si>
+    <t>Mohan San code testing,installing required python</t>
+  </si>
+  <si>
+    <t>Need to implement it on creditinfo</t>
   </si>
 </sst>
 </file>
@@ -332,7 +338,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -390,6 +396,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -711,15 +718,15 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="104.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="104.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -743,7 +750,7 @@
       </c>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" s="20" customFormat="1" ht="28.9" customHeight="1">
+    <row r="2" spans="1:7" s="20" customFormat="1" ht="28.95" customHeight="1">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -834,15 +841,15 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -955,19 +962,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -993,7 +1000,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30">
+    <row r="2" spans="1:7" ht="28.8">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1016,7 +1023,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75">
+    <row r="3" spans="1:7" ht="15.6">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1094,15 +1101,15 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1201,19 +1208,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1243,8 +1250,12 @@
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
+      <c r="D2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1</v>
+      </c>
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
@@ -1252,9 +1263,15 @@
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="13"/>
+      <c r="D3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="31">
+        <v>0.2</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" s="4" customFormat="1"/>
@@ -1316,15 +1333,15 @@
       <selection activeCell="A2" sqref="A2:G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1471,15 +1488,15 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1582,15 +1599,15 @@
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="18.5546875" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2027,15 +2044,15 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2138,15 +2155,15 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
